--- a/Project Documentations/Weekly Deliverables/W3/TimeSheet_Group39_Wk1.xlsx
+++ b/Project Documentations/Weekly Deliverables/W3/TimeSheet_Group39_Wk1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/22880852_student_uwa_edu_au/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB-PROFCOMP\UN-RCE-WA-Database\Project Documentations\Weekly Deliverables\W3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36F900A-A2F7-427D-83A4-70287B2BA632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC438C1-3665-49E5-B9C0-40F394E4935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="15200" windowHeight="7680" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
-    <sheet name="General Tasks" sheetId="1" r:id="rId2"/>
-    <sheet name="Requirements" sheetId="2" r:id="rId3"/>
+    <sheet name="Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="General Tasks" sheetId="1" r:id="rId3"/>
     <sheet name="PerPerson" sheetId="5" r:id="rId4"/>
     <sheet name="Results" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Results!$A$1:$A$18</definedName>
     <definedName name="Tasks">'General Tasks'!$A$11:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
   <si>
     <t>CITS 3200: Time Analysis Sheet. Semester 2 2008</t>
   </si>
@@ -343,40 +343,10 @@
     <t>(Week Number)</t>
   </si>
   <si>
-    <t>Set up initial meeting and find a place</t>
-  </si>
-  <si>
-    <t>Everyone</t>
-  </si>
-  <si>
-    <t>Set up teams chat for efficient communication</t>
-  </si>
-  <si>
-    <t>Meeting Week 2</t>
-  </si>
-  <si>
-    <t>Create initial file for minutes</t>
-  </si>
-  <si>
-    <t>John and Josh</t>
-  </si>
-  <si>
-    <t>Create collaborative timsheet and booked hours sheets</t>
-  </si>
-  <si>
     <t>AJ</t>
   </si>
   <si>
-    <t xml:space="preserve">Compile questions for Client </t>
-  </si>
-  <si>
     <t>Milton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach out to client </t>
-  </si>
-  <si>
-    <t>Milton and Sam</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -620,12 +590,60 @@
   <si>
     <t xml:space="preserve">Number of Tasks Remaining = </t>
   </si>
+  <si>
+    <t xml:space="preserve">Sign up backend functionality </t>
+  </si>
+  <si>
+    <t>Building front end of web application</t>
+  </si>
+  <si>
+    <t>Front-End Functionalities</t>
+  </si>
+  <si>
+    <t>Back-End Functionalities</t>
+  </si>
+  <si>
+    <t>Milton, Josh</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Milton, Josh, John, Sam, AJ</t>
+  </si>
+  <si>
+    <t>John, Sam, AJ</t>
+  </si>
+  <si>
+    <t>Refining currently existing front end application</t>
+  </si>
+  <si>
+    <t>Research on backend data structures, django tutorial</t>
+  </si>
+  <si>
+    <t>investigated techniques to populate a database with various file formats and exporting excel spreadsheet to faciliate database updates</t>
+  </si>
+  <si>
+    <t>Design and Code the initial backend framework using django</t>
+  </si>
+  <si>
+    <t>Postgres SQL Research Set Up</t>
+  </si>
+  <si>
+    <t>Created a Postgres SQL database inside django and made a simple form to populate it</t>
+  </si>
+  <si>
+    <t>working on the front end part by creating the forgot password page</t>
+  </si>
+  <si>
+    <t>build the front end page and put the css styling for the list of project available (not finished)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1132,6 +1150,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1150,27 +1191,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1183,18 +1204,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1207,67 +1275,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1279,20 +1297,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1327,6 +1331,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="11"/>
         </patternFill>
       </fill>
@@ -1341,7 +1352,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="10"/>
+          <bgColor indexed="11"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1809,105 +1820,105 @@
       <selection activeCell="A4" sqref="A4:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-    </row>
-    <row r="4" spans="1:16" ht="15">
-      <c r="A4" s="71" t="s">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-    </row>
-    <row r="5" spans="1:16" ht="15">
-      <c r="A5" s="71" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.1">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1925,86 +1936,86 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="72" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -2019,24 +2030,24 @@
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2064,7 @@
       <c r="L15" s="65"/>
       <c r="M15" s="65"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="65"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
@@ -2068,7 +2079,7 @@
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
         <v>7</v>
       </c>
@@ -2085,22 +2096,22 @@
       <c r="L17" s="65"/>
       <c r="M17" s="65"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-    </row>
-    <row r="19" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="64" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +2128,7 @@
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="64" t="s">
         <v>9</v>
       </c>
@@ -2134,7 +2145,7 @@
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
         <v>10</v>
       </c>
@@ -2151,7 +2162,7 @@
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="65" t="s">
         <v>11</v>
       </c>
@@ -2168,7 +2179,7 @@
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="65" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2196,7 @@
       <c r="L23" s="65"/>
       <c r="M23" s="65"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="65" t="s">
         <v>13</v>
       </c>
@@ -2202,7 +2213,7 @@
       <c r="L24" s="65"/>
       <c r="M24" s="65"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -2217,211 +2228,211 @@
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="74" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="75" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="77" t="s">
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="77" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="77" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="77" t="s">
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="75" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="77" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="75" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="75" t="s">
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="75" t="s">
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="75" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -2436,41 +2447,41 @@
       <c r="L39" s="59"/>
       <c r="M39" s="59"/>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="83" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="79" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -2485,12 +2496,12 @@
       <c r="L43" s="60"/>
       <c r="M43" s="60"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="66" t="s">
         <v>28</v>
       </c>
@@ -2507,92 +2518,92 @@
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="80" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="80" t="s">
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="80" t="s">
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="78" t="s">
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="78" t="s">
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -2607,7 +2618,7 @@
       <c r="L51" s="55"/>
       <c r="M51" s="55"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
       <c r="C52" s="58"/>
@@ -2622,7 +2633,7 @@
       <c r="L52" s="58"/>
       <c r="M52" s="58"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="58"/>
       <c r="B53" s="58"/>
       <c r="C53" s="58"/>
@@ -2637,7 +2648,7 @@
       <c r="L53" s="58"/>
       <c r="M53" s="58"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
         <v>34</v>
       </c>
@@ -2657,7 +2668,7 @@
       <c r="O54" s="63"/>
       <c r="P54" s="63"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63"/>
@@ -2675,7 +2686,7 @@
       <c r="O55" s="63"/>
       <c r="P55" s="63"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
       <c r="C56" s="63"/>
@@ -2693,7 +2704,7 @@
       <c r="O56" s="63"/>
       <c r="P56" s="63"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
@@ -2757,1049 +2768,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor indexed="15"/>
-  </sheetPr>
-  <dimension ref="A1:X36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="23" width="6.140625" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A2" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
-      <c r="A4" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A5" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A6" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="54"/>
-    </row>
-    <row r="10" spans="1:24" s="1" customFormat="1">
-      <c r="A10" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:24" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" s="85"/>
-      <c r="X11" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="19">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="18">
-        <v>2</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="18">
-        <v>2</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="18">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="18"/>
-    </row>
-    <row r="22" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="18"/>
-    </row>
-    <row r="23" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="18"/>
-    </row>
-    <row r="24" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="18"/>
-    </row>
-    <row r="25" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="18"/>
-    </row>
-    <row r="26" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="18"/>
-    </row>
-    <row r="27" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="18"/>
-    </row>
-    <row r="28" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="18"/>
-    </row>
-    <row r="29" spans="1:24" ht="25.5" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="18"/>
-    </row>
-    <row r="30" spans="1:24" s="57" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A30" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56">
-        <f>SUM(D13:D29)</f>
-        <v>5</v>
-      </c>
-      <c r="E30" s="56">
-        <f t="shared" ref="E30:W30" si="0">SUM(E13:E29)</f>
-        <v>5</v>
-      </c>
-      <c r="F30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="56"/>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="D31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="T31" s="9"/>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="D32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="T32" s="9"/>
-    </row>
-    <row r="33" spans="4:20">
-      <c r="D33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="T33" s="9"/>
-    </row>
-    <row r="34" spans="4:20">
-      <c r="D34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="4:20">
-      <c r="F35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="4:20">
-      <c r="N36" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:T10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="13"/>
@@ -3807,13 +2775,13 @@
   <dimension ref="A1:AU69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="16" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <pane xSplit="4" ySplit="16" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -3828,399 +2796,413 @@
     <col min="47" max="47" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="62"/>
     </row>
-    <row r="2" spans="1:47" ht="14.1">
-      <c r="A2" s="99" t="s">
+    <row r="2" spans="1:47" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:47" ht="14.1">
-      <c r="A3" s="99" t="s">
+    <row r="3" spans="1:47" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:47" ht="14.1">
+    <row r="4" spans="1:47" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:47" ht="14.1">
-      <c r="A5" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
+    <row r="5" spans="1:47" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:47">
-      <c r="A6" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A6" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="62"/>
     </row>
-    <row r="7" spans="1:47">
-      <c r="A7" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A7" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="62"/>
     </row>
-    <row r="8" spans="1:47">
-      <c r="A8" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="62"/>
     </row>
-    <row r="9" spans="1:47">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="62"/>
     </row>
-    <row r="10" spans="1:47">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="62"/>
     </row>
-    <row r="11" spans="1:47">
-      <c r="A11" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A11" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="62"/>
     </row>
-    <row r="12" spans="1:47">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="62"/>
     </row>
-    <row r="13" spans="1:47">
-      <c r="A13" s="105" t="str">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A13" s="97" t="str">
         <f>IF(AND(COUNT(D17:D68) &gt;0,(D69&lt;&gt;100)),"Value does not sum to $100","Value is OK")</f>
         <v>Value is OK</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-    </row>
-    <row r="14" spans="1:47" s="22" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="97" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
+    </row>
+    <row r="14" spans="1:47" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="104"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="104"/>
-      <c r="AR14" s="114"/>
+      <c r="D14" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="96"/>
       <c r="AS14" s="25"/>
       <c r="AT14" s="25"/>
       <c r="AU14" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="89"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="88"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH15" s="88"/>
+      <c r="AI15" s="88"/>
+      <c r="AJ15" s="88"/>
+      <c r="AK15" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL15" s="88"/>
+      <c r="AM15" s="88"/>
+      <c r="AN15" s="88"/>
+      <c r="AO15" s="88" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:47" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="97" t="s">
+      <c r="AP15" s="88"/>
+      <c r="AQ15" s="88"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97" t="s">
+      <c r="AT15" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="88" t="s">
+      <c r="AU15" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="97" t="s">
+    </row>
+    <row r="16" spans="1:47" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="89"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97" t="s">
+      <c r="F16" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97" t="s">
+      <c r="G16" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97" t="s">
+      <c r="H16" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="97"/>
-      <c r="AO15" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="100" t="s">
+      <c r="I16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="X16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC16" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="92"/>
+    </row>
+    <row r="17" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="18">
+        <v>3</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AT15" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU15" s="100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="U16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="V16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="W16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="X16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC16" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO16" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="102"/>
-      <c r="AU16" s="101"/>
-    </row>
-    <row r="17" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="21"/>
       <c r="F17" s="18"/>
       <c r="G17" s="21"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="18"/>
+      <c r="I17" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="J17" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="K17" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="18">
+        <v>2.5</v>
+      </c>
       <c r="M17" s="21"/>
       <c r="N17" s="18"/>
       <c r="O17" s="21"/>
@@ -4257,19 +3239,33 @@
       <c r="AT17" s="18"/>
       <c r="AU17" s="18"/>
     </row>
-    <row r="18" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+    <row r="18" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="D18" s="18"/>
       <c r="E18" s="21"/>
       <c r="F18" s="18"/>
       <c r="G18" s="21"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="18"/>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
+      <c r="J18" s="18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="21">
+        <v>2</v>
+      </c>
+      <c r="L18" s="18">
+        <v>2</v>
+      </c>
       <c r="M18" s="21"/>
       <c r="N18" s="18"/>
       <c r="O18" s="21"/>
@@ -4306,19 +3302,33 @@
       <c r="AT18" s="18"/>
       <c r="AU18" s="18"/>
     </row>
-    <row r="19" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+    <row r="19" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="18">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="21"/>
       <c r="F19" s="18"/>
       <c r="G19" s="21"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="18"/>
+      <c r="I19" s="21">
+        <v>3.25</v>
+      </c>
+      <c r="J19" s="18">
+        <v>3.25</v>
+      </c>
+      <c r="K19" s="21">
+        <v>3.25</v>
+      </c>
+      <c r="L19" s="18">
+        <v>3.25</v>
+      </c>
       <c r="M19" s="21"/>
       <c r="N19" s="18"/>
       <c r="O19" s="21"/>
@@ -4355,19 +3365,33 @@
       <c r="AT19" s="18"/>
       <c r="AU19" s="18"/>
     </row>
-    <row r="20" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+    <row r="20" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="18">
+        <v>3</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="D20" s="18"/>
       <c r="E20" s="21"/>
       <c r="F20" s="18"/>
       <c r="G20" s="21"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="18"/>
+      <c r="I20" s="21">
+        <v>3</v>
+      </c>
+      <c r="J20" s="18">
+        <v>3</v>
+      </c>
+      <c r="K20" s="21">
+        <v>3</v>
+      </c>
+      <c r="L20" s="18">
+        <v>3</v>
+      </c>
       <c r="M20" s="21"/>
       <c r="N20" s="18"/>
       <c r="O20" s="21"/>
@@ -4404,19 +3428,33 @@
       <c r="AT20" s="18"/>
       <c r="AU20" s="18"/>
     </row>
-    <row r="21" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="18">
+        <v>3</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="21"/>
       <c r="F21" s="18"/>
       <c r="G21" s="21"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="18"/>
+      <c r="I21" s="21">
+        <v>3</v>
+      </c>
+      <c r="J21" s="18">
+        <v>3</v>
+      </c>
+      <c r="K21" s="21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="18">
+        <v>3</v>
+      </c>
       <c r="M21" s="21"/>
       <c r="N21" s="18"/>
       <c r="O21" s="21"/>
@@ -4453,19 +3491,33 @@
       <c r="AT21" s="18"/>
       <c r="AU21" s="18"/>
     </row>
-    <row r="22" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="18">
+        <v>3</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" s="18"/>
       <c r="E22" s="21"/>
       <c r="F22" s="18"/>
       <c r="G22" s="21"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="18"/>
+      <c r="I22" s="21">
+        <v>3</v>
+      </c>
+      <c r="J22" s="18">
+        <v>3</v>
+      </c>
+      <c r="K22" s="21">
+        <v>3</v>
+      </c>
+      <c r="L22" s="18">
+        <v>3</v>
+      </c>
       <c r="M22" s="21"/>
       <c r="N22" s="18"/>
       <c r="O22" s="21"/>
@@ -4502,19 +3554,33 @@
       <c r="AT22" s="18"/>
       <c r="AU22" s="18"/>
     </row>
-    <row r="23" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="18">
+        <v>3</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="21"/>
       <c r="F23" s="18"/>
       <c r="G23" s="21"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="18"/>
+      <c r="I23" s="21">
+        <v>3</v>
+      </c>
+      <c r="J23" s="18">
+        <v>3</v>
+      </c>
+      <c r="K23" s="21">
+        <v>3</v>
+      </c>
+      <c r="L23" s="18">
+        <v>3</v>
+      </c>
       <c r="M23" s="21"/>
       <c r="N23" s="18"/>
       <c r="O23" s="21"/>
@@ -4551,19 +3617,33 @@
       <c r="AT23" s="18"/>
       <c r="AU23" s="18"/>
     </row>
-    <row r="24" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="18">
+        <v>3</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="21"/>
       <c r="F24" s="18"/>
       <c r="G24" s="21"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="21">
+        <v>2</v>
+      </c>
+      <c r="J24" s="18">
+        <v>2</v>
+      </c>
+      <c r="K24" s="21">
+        <v>2</v>
+      </c>
+      <c r="L24" s="18">
+        <v>2</v>
+      </c>
       <c r="M24" s="21"/>
       <c r="N24" s="18"/>
       <c r="O24" s="21"/>
@@ -4600,19 +3680,33 @@
       <c r="AT24" s="18"/>
       <c r="AU24" s="18"/>
     </row>
-    <row r="25" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="18">
+        <v>3</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="D25" s="18"/>
       <c r="E25" s="21"/>
       <c r="F25" s="18"/>
       <c r="G25" s="21"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="21">
+        <v>2</v>
+      </c>
+      <c r="J25" s="18">
+        <v>2</v>
+      </c>
+      <c r="K25" s="21">
+        <v>2</v>
+      </c>
+      <c r="L25" s="18">
+        <v>2</v>
+      </c>
       <c r="M25" s="21"/>
       <c r="N25" s="18"/>
       <c r="O25" s="21"/>
@@ -4649,19 +3743,33 @@
       <c r="AT25" s="18"/>
       <c r="AU25" s="18"/>
     </row>
-    <row r="26" spans="1:47" ht="33.75" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="18">
+        <v>3</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="D26" s="18"/>
       <c r="E26" s="21"/>
       <c r="F26" s="18"/>
       <c r="G26" s="21"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="J26" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="L26" s="18">
+        <v>2.5</v>
+      </c>
       <c r="M26" s="21"/>
       <c r="N26" s="18"/>
       <c r="O26" s="21"/>
@@ -4698,7 +3806,7 @@
       <c r="AT26" s="18"/>
       <c r="AU26" s="18"/>
     </row>
-    <row r="27" spans="1:47" ht="33.75" customHeight="1">
+    <row r="27" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -4747,7 +3855,7 @@
       <c r="AT27" s="18"/>
       <c r="AU27" s="18"/>
     </row>
-    <row r="28" spans="1:47" ht="33.75" customHeight="1">
+    <row r="28" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -4796,7 +3904,7 @@
       <c r="AT28" s="18"/>
       <c r="AU28" s="18"/>
     </row>
-    <row r="29" spans="1:47" ht="33.75" customHeight="1">
+    <row r="29" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -4845,7 +3953,7 @@
       <c r="AT29" s="18"/>
       <c r="AU29" s="18"/>
     </row>
-    <row r="30" spans="1:47" ht="33.75" customHeight="1">
+    <row r="30" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -4894,7 +4002,7 @@
       <c r="AT30" s="18"/>
       <c r="AU30" s="18"/>
     </row>
-    <row r="31" spans="1:47" ht="33.75" customHeight="1">
+    <row r="31" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -4943,7 +4051,7 @@
       <c r="AT31" s="18"/>
       <c r="AU31" s="18"/>
     </row>
-    <row r="32" spans="1:47" ht="33.75" customHeight="1">
+    <row r="32" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -4992,7 +4100,7 @@
       <c r="AT32" s="18"/>
       <c r="AU32" s="18"/>
     </row>
-    <row r="33" spans="1:47" ht="33.75" customHeight="1">
+    <row r="33" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -5041,7 +4149,7 @@
       <c r="AT33" s="18"/>
       <c r="AU33" s="18"/>
     </row>
-    <row r="34" spans="1:47" ht="33.75" customHeight="1">
+    <row r="34" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -5090,7 +4198,7 @@
       <c r="AT34" s="18"/>
       <c r="AU34" s="18"/>
     </row>
-    <row r="35" spans="1:47" ht="33.75" customHeight="1">
+    <row r="35" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -5139,7 +4247,7 @@
       <c r="AT35" s="18"/>
       <c r="AU35" s="18"/>
     </row>
-    <row r="36" spans="1:47" ht="33.75" customHeight="1">
+    <row r="36" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -5188,7 +4296,7 @@
       <c r="AT36" s="18"/>
       <c r="AU36" s="18"/>
     </row>
-    <row r="37" spans="1:47" ht="33.75" customHeight="1">
+    <row r="37" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -5237,7 +4345,7 @@
       <c r="AT37" s="18"/>
       <c r="AU37" s="18"/>
     </row>
-    <row r="38" spans="1:47" ht="33.75" customHeight="1">
+    <row r="38" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -5286,7 +4394,7 @@
       <c r="AT38" s="18"/>
       <c r="AU38" s="18"/>
     </row>
-    <row r="39" spans="1:47" ht="33.75" customHeight="1">
+    <row r="39" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -5335,7 +4443,7 @@
       <c r="AT39" s="18"/>
       <c r="AU39" s="18"/>
     </row>
-    <row r="40" spans="1:47" ht="33.75" customHeight="1">
+    <row r="40" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -5384,7 +4492,7 @@
       <c r="AT40" s="18"/>
       <c r="AU40" s="18"/>
     </row>
-    <row r="41" spans="1:47" ht="33.75" customHeight="1">
+    <row r="41" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -5433,7 +4541,7 @@
       <c r="AT41" s="18"/>
       <c r="AU41" s="18"/>
     </row>
-    <row r="42" spans="1:47" ht="33.75" customHeight="1">
+    <row r="42" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -5482,7 +4590,7 @@
       <c r="AT42" s="18"/>
       <c r="AU42" s="18"/>
     </row>
-    <row r="43" spans="1:47" ht="33.75" customHeight="1">
+    <row r="43" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -5531,7 +4639,7 @@
       <c r="AT43" s="18"/>
       <c r="AU43" s="18"/>
     </row>
-    <row r="44" spans="1:47" ht="33.75" customHeight="1">
+    <row r="44" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -5580,7 +4688,7 @@
       <c r="AT44" s="18"/>
       <c r="AU44" s="18"/>
     </row>
-    <row r="45" spans="1:47" ht="33.75" customHeight="1">
+    <row r="45" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -5629,7 +4737,7 @@
       <c r="AT45" s="18"/>
       <c r="AU45" s="18"/>
     </row>
-    <row r="46" spans="1:47" ht="33.75" customHeight="1">
+    <row r="46" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -5678,7 +4786,7 @@
       <c r="AT46" s="18"/>
       <c r="AU46" s="18"/>
     </row>
-    <row r="47" spans="1:47" ht="33.75" customHeight="1">
+    <row r="47" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -5727,7 +4835,7 @@
       <c r="AT47" s="18"/>
       <c r="AU47" s="18"/>
     </row>
-    <row r="48" spans="1:47" ht="33.75" customHeight="1">
+    <row r="48" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -5776,7 +4884,7 @@
       <c r="AT48" s="18"/>
       <c r="AU48" s="18"/>
     </row>
-    <row r="49" spans="1:47" ht="33.75" customHeight="1">
+    <row r="49" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -5825,7 +4933,7 @@
       <c r="AT49" s="18"/>
       <c r="AU49" s="18"/>
     </row>
-    <row r="50" spans="1:47" ht="33.75" customHeight="1">
+    <row r="50" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -5874,7 +4982,7 @@
       <c r="AT50" s="18"/>
       <c r="AU50" s="18"/>
     </row>
-    <row r="51" spans="1:47" ht="33.75" customHeight="1">
+    <row r="51" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -5923,7 +5031,7 @@
       <c r="AT51" s="18"/>
       <c r="AU51" s="18"/>
     </row>
-    <row r="52" spans="1:47" ht="33.75" customHeight="1">
+    <row r="52" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -5972,7 +5080,7 @@
       <c r="AT52" s="18"/>
       <c r="AU52" s="18"/>
     </row>
-    <row r="53" spans="1:47" ht="33.75" customHeight="1">
+    <row r="53" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -6021,7 +5129,7 @@
       <c r="AT53" s="18"/>
       <c r="AU53" s="18"/>
     </row>
-    <row r="54" spans="1:47" ht="33.75" customHeight="1">
+    <row r="54" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -6070,7 +5178,7 @@
       <c r="AT54" s="18"/>
       <c r="AU54" s="18"/>
     </row>
-    <row r="55" spans="1:47" ht="33.75" customHeight="1">
+    <row r="55" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -6119,7 +5227,7 @@
       <c r="AT55" s="18"/>
       <c r="AU55" s="18"/>
     </row>
-    <row r="56" spans="1:47" ht="33.75" customHeight="1">
+    <row r="56" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -6168,7 +5276,7 @@
       <c r="AT56" s="18"/>
       <c r="AU56" s="18"/>
     </row>
-    <row r="57" spans="1:47" ht="33.75" customHeight="1">
+    <row r="57" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -6217,7 +5325,7 @@
       <c r="AT57" s="18"/>
       <c r="AU57" s="18"/>
     </row>
-    <row r="58" spans="1:47" ht="33.75" customHeight="1">
+    <row r="58" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -6266,7 +5374,7 @@
       <c r="AT58" s="18"/>
       <c r="AU58" s="18"/>
     </row>
-    <row r="59" spans="1:47" ht="33.75" customHeight="1">
+    <row r="59" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -6315,7 +5423,7 @@
       <c r="AT59" s="18"/>
       <c r="AU59" s="18"/>
     </row>
-    <row r="60" spans="1:47" ht="33.75" customHeight="1">
+    <row r="60" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -6364,7 +5472,7 @@
       <c r="AT60" s="18"/>
       <c r="AU60" s="18"/>
     </row>
-    <row r="61" spans="1:47" ht="33.75" customHeight="1">
+    <row r="61" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -6413,7 +5521,7 @@
       <c r="AT61" s="18"/>
       <c r="AU61" s="18"/>
     </row>
-    <row r="62" spans="1:47" ht="33.75" customHeight="1">
+    <row r="62" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -6462,7 +5570,7 @@
       <c r="AT62" s="18"/>
       <c r="AU62" s="18"/>
     </row>
-    <row r="63" spans="1:47" ht="33.75" customHeight="1">
+    <row r="63" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -6511,7 +5619,7 @@
       <c r="AT63" s="18"/>
       <c r="AU63" s="18"/>
     </row>
-    <row r="64" spans="1:47" ht="33.75" customHeight="1">
+    <row r="64" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -6560,7 +5668,7 @@
       <c r="AT64" s="18"/>
       <c r="AU64" s="18"/>
     </row>
-    <row r="65" spans="1:47" ht="33.75" customHeight="1">
+    <row r="65" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -6609,7 +5717,7 @@
       <c r="AT65" s="18"/>
       <c r="AU65" s="18"/>
     </row>
-    <row r="66" spans="1:47" ht="33.75" customHeight="1">
+    <row r="66" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -6658,7 +5766,7 @@
       <c r="AT66" s="18"/>
       <c r="AU66" s="18"/>
     </row>
-    <row r="67" spans="1:47" ht="33.75" customHeight="1">
+    <row r="67" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -6707,7 +5815,7 @@
       <c r="AT67" s="18"/>
       <c r="AU67" s="18"/>
     </row>
-    <row r="68" spans="1:47" ht="33.75" customHeight="1">
+    <row r="68" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -6756,9 +5864,9 @@
       <c r="AT68" s="18"/>
       <c r="AU68" s="18"/>
     </row>
-    <row r="69" spans="1:47" s="35" customFormat="1" ht="33.75" customHeight="1">
+    <row r="69" spans="1:47" s="35" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="34" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -6784,19 +5892,19 @@
       </c>
       <c r="I69" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="J69" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="K69" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="L69" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="M69" s="34">
         <f t="shared" si="0"/>
@@ -6965,15 +6073,1010 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Value does not sum to $100"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Value is OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor indexed="15"/>
+  </sheetPr>
+  <dimension ref="A1:X36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="108"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="103"/>
+      <c r="X11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19">
+        <v>10.75</v>
+      </c>
+      <c r="G13" s="20">
+        <v>10.75</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="G14" s="20">
+        <v>15.5</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="18">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19">
+        <v>3</v>
+      </c>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="18"/>
+    </row>
+    <row r="21" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="18"/>
+    </row>
+    <row r="24" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="18"/>
+    </row>
+    <row r="26" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="18"/>
+    </row>
+    <row r="27" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="18"/>
+    </row>
+    <row r="29" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="18"/>
+    </row>
+    <row r="30" spans="1:24" s="57" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56">
+        <f>SUM(D13:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="56">
+        <f t="shared" ref="E30:W30" si="0">SUM(E13:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="56">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="G30" s="56">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="H30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="56"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="N36" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:T10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6986,17 +7089,17 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7011,8 +7114,8 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="47"/>
@@ -7028,8 +7131,8 @@
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="111"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="69"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -7043,37 +7146,37 @@
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="111"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="69"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
-      <c r="B7" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="B7" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="14.1">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>47</v>
@@ -7106,17 +7209,19 @@
         <v>56</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="21">
+        <v>7.25</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="21"/>
       <c r="F9" s="18"/>
@@ -7127,17 +7232,19 @@
       <c r="K9" s="21"/>
       <c r="L9" s="34">
         <f>SUM(B9:K9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="21">
+        <v>9.25</v>
+      </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21"/>
       <c r="F10" s="18"/>
@@ -7148,17 +7255,19 @@
       <c r="K10" s="21"/>
       <c r="L10" s="34">
         <f t="shared" ref="L10:L15" si="0">SUM(B10:K10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B11" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="21">
+        <v>9</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="E11" s="21"/>
       <c r="F11" s="18"/>
@@ -7169,17 +7278,19 @@
       <c r="K11" s="21"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="21">
+        <v>8</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="21"/>
       <c r="F12" s="18"/>
@@ -7190,17 +7301,19 @@
       <c r="K12" s="21"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B13" s="18">
         <v>1</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="21">
+        <v>9.75</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="21"/>
       <c r="F13" s="18"/>
@@ -7211,10 +7324,10 @@
       <c r="K13" s="21"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="21"/>
@@ -7231,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
@@ -7248,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="21"/>
@@ -7265,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="21"/>
@@ -7282,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="21"/>
@@ -7319,10 +7432,10 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
@@ -7330,43 +7443,43 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="38"/>
       <c r="P1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <f>60*(10-(COUNTBLANK(PerPerson!A9:A18)))</f>
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D2" s="40"/>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <f>SUM('General Tasks'!E30,'General Tasks'!G30,'General Tasks'!I30,'General Tasks'!K30,'General Tasks'!M30,'General Tasks'!O30,'General Tasks'!Q30,'General Tasks'!S30,'General Tasks'!U30,'General Tasks'!W30,Requirements!F69,Requirements!H69,Requirements!J69,Requirements!L69,Requirements!N69,Requirements!P69,Requirements!R69,Requirements!T69,Requirements!V69,Requirements!X69,Requirements!Z69,Requirements!AB69,Requirements!AD69,Requirements!AF69,Requirements!AH69,Requirements!AJ69,Requirements!AL69,Requirements!AN69,Requirements!AP69,Requirements!AR69)</f>
-        <v>5</v>
+        <v>81.75</v>
       </c>
       <c r="D3" s="40"/>
       <c r="P3">
@@ -7378,13 +7491,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <f>B2-B3</f>
-        <v>295</v>
+        <v>218.25</v>
       </c>
       <c r="C4" t="str">
         <f>IF(B4&gt;=0,"within budget","over budget")</f>
@@ -7400,13 +7513,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <f>(('General Tasks'!C9)-B3)</f>
-        <v>-5</v>
+        <v>-51.75</v>
       </c>
       <c r="C5" t="str">
         <f>IF(B5&gt;=0,"within budget","over budget")</f>
@@ -7414,20 +7527,20 @@
       </c>
       <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <f>(SUM('General Tasks'!H30,Requirements!M69,Requirements!O69) - (B3))</f>
-        <v>-5</v>
+        <v>-81.75</v>
       </c>
       <c r="C6" t="str">
         <f>IF(B6&gt;=0,"within estimate","over estimate")</f>
         <v>over estimate</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="P6">
         <f>IF(Requirements!AT19,Requirements!D19,0)</f>
@@ -7438,23 +7551,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B7" s="43">
         <f>(SUM('General Tasks'!P30,Requirements!AC69,Requirements!AE69) - (B4))</f>
-        <v>-295</v>
+        <v>-218.25</v>
       </c>
       <c r="C7" s="43" t="str">
         <f>IF(B7&gt;=0,"within estimate","over estimate")</f>
         <v>over estimate</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
       <c r="P8">
         <f>IF(Requirements!AT20,Requirements!D20,0)</f>
@@ -7465,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P9">
         <f>IF(Requirements!AT21,Requirements!D21,0)</f>
         <v>0</v>
@@ -7475,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P10">
         <f>IF(Requirements!AT22,Requirements!D22,0)</f>
         <v>0</v>
@@ -7485,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
         <v>14</v>
       </c>
@@ -7500,9 +7613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <f>COUNT(Requirements!AT17:AT68)</f>
@@ -7518,9 +7631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <f>P58</f>
@@ -7539,9 +7652,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <f>COUNT(Requirements!AS17:AS68)</f>
@@ -7557,9 +7670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B15" s="43">
         <f>Q58</f>
@@ -7578,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P16">
         <f>IF(Requirements!AT28,Requirements!D28,0)</f>
         <v>0</v>
@@ -7588,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P17">
         <f>IF(Requirements!AT29,Requirements!D29,0)</f>
         <v>0</v>
@@ -7598,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P18">
         <f>IF(Requirements!AT30,Requirements!D30,0)</f>
         <v>0</v>
@@ -7608,9 +7721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B19" s="38"/>
       <c r="P19">
@@ -7622,13 +7735,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B20" s="40">
         <f>COUNT('General Tasks'!X13:X29)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P20">
         <f>IF(Requirements!AT32,Requirements!D32,0)</f>
@@ -7639,13 +7752,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B21" s="44">
         <f>(COUNT('General Tasks'!B13:B29)-B20)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <f>IF(Requirements!AT33,Requirements!D33,0)</f>
@@ -7656,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P22">
         <f>IF(Requirements!AT34,Requirements!D34,0)</f>
         <v>0</v>
@@ -7666,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P23">
         <f>IF(Requirements!AT35,Requirements!D35,0)</f>
         <v>0</v>
@@ -7676,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P24">
         <f>IF(Requirements!AT36,Requirements!D36,0)</f>
         <v>0</v>
@@ -7686,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P25">
         <f>IF(Requirements!AT37,Requirements!D37,0)</f>
         <v>0</v>
@@ -7696,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P26">
         <f>IF(Requirements!AT38,Requirements!D38,0)</f>
         <v>0</v>
@@ -7706,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P27">
         <f>IF(Requirements!AT39,Requirements!D39,0)</f>
         <v>0</v>
@@ -7716,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P28">
         <f>IF(Requirements!AT40,Requirements!D40,0)</f>
         <v>0</v>
@@ -7726,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P29">
         <f>IF(Requirements!AT41,Requirements!D41,0)</f>
         <v>0</v>
@@ -7736,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P30">
         <f>IF(Requirements!AT42,Requirements!D42,0)</f>
         <v>0</v>
@@ -7746,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P31">
         <f>IF(Requirements!AT43,Requirements!D43,0)</f>
         <v>0</v>
@@ -7756,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P32">
         <f>IF(Requirements!AT44,Requirements!D44,0)</f>
         <v>0</v>
@@ -7766,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="16:17">
+    <row r="33" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P33">
         <f>IF(Requirements!AT45,Requirements!D45,0)</f>
         <v>0</v>
@@ -7776,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="16:17">
+    <row r="34" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P34">
         <f>IF(Requirements!AT46,Requirements!D46,0)</f>
         <v>0</v>
@@ -7786,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="16:17">
+    <row r="35" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P35">
         <f>IF(Requirements!AT47,Requirements!D47,0)</f>
         <v>0</v>
@@ -7796,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="16:17">
+    <row r="36" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P36">
         <f>IF(Requirements!AT48,Requirements!D48,0)</f>
         <v>0</v>
@@ -7806,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="16:17">
+    <row r="37" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P37">
         <f>IF(Requirements!AT49,Requirements!D49,0)</f>
         <v>0</v>
@@ -7816,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="16:17">
+    <row r="38" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P38">
         <f>IF(Requirements!AT50,Requirements!D50,0)</f>
         <v>0</v>
@@ -7826,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="16:17">
+    <row r="39" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P39">
         <f>IF(Requirements!AT51,Requirements!D51,0)</f>
         <v>0</v>
@@ -7836,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="16:17">
+    <row r="40" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P40">
         <f>IF(Requirements!AT52,Requirements!D52,0)</f>
         <v>0</v>
@@ -7846,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="16:17">
+    <row r="41" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P41">
         <f>IF(Requirements!AT53,Requirements!D53,0)</f>
         <v>0</v>
@@ -7856,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="16:17">
+    <row r="42" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P42">
         <f>IF(Requirements!AT54,Requirements!D54,0)</f>
         <v>0</v>
@@ -7866,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="16:17">
+    <row r="43" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P43">
         <f>IF(Requirements!AT55,Requirements!D55,0)</f>
         <v>0</v>
@@ -7876,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="16:17">
+    <row r="44" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P44">
         <f>IF(Requirements!AT56,Requirements!D56,0)</f>
         <v>0</v>
@@ -7886,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="16:17">
+    <row r="45" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P45">
         <f>IF(Requirements!AT57,Requirements!D57,0)</f>
         <v>0</v>
@@ -7896,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="16:17">
+    <row r="46" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P46">
         <f>IF(Requirements!AT58,Requirements!D58,0)</f>
         <v>0</v>
@@ -7906,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="16:17">
+    <row r="47" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P47">
         <f>IF(Requirements!AT59,Requirements!D59,0)</f>
         <v>0</v>
@@ -7916,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="16:17">
+    <row r="48" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P48">
         <f>IF(Requirements!AT60,Requirements!D60,0)</f>
         <v>0</v>
@@ -7926,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="16:17">
+    <row r="49" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P49">
         <f>IF(Requirements!AT61,Requirements!D61,0)</f>
         <v>0</v>
@@ -7936,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="16:17">
+    <row r="50" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P50">
         <f>IF(Requirements!AT62,Requirements!D62,0)</f>
         <v>0</v>
@@ -7946,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="16:17">
+    <row r="51" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P51">
         <f>IF(Requirements!AT63,Requirements!D63,0)</f>
         <v>0</v>
@@ -7956,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="16:17">
+    <row r="52" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P52">
         <f>IF(Requirements!AT64,Requirements!D64,0)</f>
         <v>0</v>
@@ -7966,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="16:17">
+    <row r="53" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P53">
         <f>IF(Requirements!AT65,Requirements!D65,0)</f>
         <v>0</v>
@@ -7976,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="16:17">
+    <row r="54" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P54">
         <f>IF(Requirements!AT66,Requirements!D66,0)</f>
         <v>0</v>
@@ -7986,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="16:17">
+    <row r="55" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P55">
         <f>IF(Requirements!AT67,Requirements!D67,0)</f>
         <v>0</v>
@@ -7996,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="16:17">
+    <row r="56" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P56">
         <f>IF(Requirements!AT68,Requirements!D68,0)</f>
         <v>0</v>
@@ -8006,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="16:17">
+    <row r="57" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P57">
         <f>IF(Requirements!AT69,Requirements!D69,0)</f>
         <v>0</v>
@@ -8016,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="16:17">
+    <row r="58" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P58" s="22">
         <f>SUM(P3:P57)</f>
         <v>0</v>
@@ -8029,67 +8142,66 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"within budget"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"over budget"</formula>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"more than 60% met"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"less than 60% met"</formula>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"less than 40% scrubbed"</formula>
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"within budget"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"more than 40% scrubbed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="3" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"over budget"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="1" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="equal">
       <formula>"within estimate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="equal">
       <formula>"over estimate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"more than 60% met"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"less than 60% met"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"less than 40% scrubbed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"more than 40% scrubbed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
